--- a/planning/Bug Tracker.xlsx
+++ b/planning/Bug Tracker.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7308F7-CD00-4F76-B29E-671275BF1326}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianburgin/codeclan_work/week_09/project/w10_stocks_project/planning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F4C31-A91E-3C46-8D9B-AABC0C9A1B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39460" yWindow="1500" windowWidth="25480" windowHeight="14920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bug/error</t>
   </si>
@@ -39,13 +42,43 @@
   </si>
   <si>
     <t>Solution Date</t>
+  </si>
+  <si>
+    <t>useEffect - Not being called at correct time at "add"</t>
+  </si>
+  <si>
+    <t>Calling fetch db at the end of stock add</t>
+  </si>
+  <si>
+    <t>Not fetching API - Ran out of API calls</t>
+  </si>
+  <si>
+    <t>Set up random selector of keys</t>
+  </si>
+  <si>
+    <t>Page not rendering - data not ready</t>
+  </si>
+  <si>
+    <t>Calling useEffects and ternary operators so will only load when not null</t>
+  </si>
+  <si>
+    <t>CSS failed on new screen - sizing issues</t>
+  </si>
+  <si>
+    <t>Change sizing</t>
+  </si>
+  <si>
+    <t>Graph changes not rendering on click</t>
+  </si>
+  <si>
+    <t>Created state at higher level and passed down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,9 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,21 +449,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,6 +475,76 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44677</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44676</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44676</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44678</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44678</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44678</v>
       </c>
     </row>
   </sheetData>
